--- a/about/Performance.gov-Reports.xlsx
+++ b/about/Performance.gov-Reports.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\landerson\Documents\GSA Repo\InterimPerformance-Dot-Gov-2018\about\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlooff\Desktop\Websites\GSA Interim Website\InterimPerformance-Dot-Gov-2018\about\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="DataDictionary" localSheetId="3" hidden="1">DataDictionary!$A$1:$C$14</definedName>
-    <definedName name="Pgov_APGs" localSheetId="2" hidden="1">'Pgov-APGs'!$A$1:$G$83</definedName>
+    <definedName name="Pgov_APGs" localSheetId="2" hidden="1">'Pgov-APGs'!$A$1:$G$80</definedName>
     <definedName name="Pgov_StrategicGoals_Objs" localSheetId="1" hidden="1">'Pgov-StrategicGoals_Objs'!$A$1:$J$251</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2802" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2784" uniqueCount="1020">
   <si>
     <t>APG_Date_Chng</t>
   </si>
@@ -1363,9 +1363,6 @@
     <t>Design and deliver GSA products and services that yield measurable savings while aligning with customer mission objectives and changing market demand.</t>
   </si>
   <si>
-    <t>018SO18050</t>
-  </si>
-  <si>
     <t>018SO18045</t>
   </si>
   <si>
@@ -1747,9 +1744,6 @@
     <t>Conduct Exploration in Deep Space, Including to the Surface of the Moon.</t>
   </si>
   <si>
-    <t>014SO18080</t>
-  </si>
-  <si>
     <t>005SO18016</t>
   </si>
   <si>
@@ -2264,14 +2258,6 @@
   </si>
   <si>
     <t>Foster partnerships to achieve balanced stewardship and use of our public lands</t>
-  </si>
-  <si>
-    <t>Ensure public receives fair market value for resources; and recover costs_x000D_
-where appropriate</t>
-  </si>
-  <si>
-    <t>Manage DOI water storage and delivery to resolve conflicts and expand_x000D_
-capacity</t>
   </si>
   <si>
     <t>Ensure access to mineral resources</t>
@@ -2353,9 +2339,6 @@
     <t>Align DOI organizational structure and workforce to improve partnership engagement and mission delivery</t>
   </si>
   <si>
-    <t>010SO18230</t>
-  </si>
-  <si>
     <t>009SO18224</t>
   </si>
   <si>
@@ -2422,9 +2405,6 @@
     <t>029SO18129</t>
   </si>
   <si>
-    <t>015SO18108</t>
-  </si>
-  <si>
     <t>010SO18245</t>
   </si>
   <si>
@@ -2581,15 +2561,9 @@
     <t>015SO18107</t>
   </si>
   <si>
-    <t>020SO18132</t>
-  </si>
-  <si>
     <t>009SO18212</t>
   </si>
   <si>
-    <t>010SO18235</t>
-  </si>
-  <si>
     <t>027SO18177</t>
   </si>
   <si>
@@ -2672,9 +2646,6 @@
   </si>
   <si>
     <t>010SO18244</t>
-  </si>
-  <si>
-    <t>010SO18249</t>
   </si>
   <si>
     <t>027SO18183</t>
@@ -3055,6 +3026,24 @@
     <t>Improve Student Privacy and Data Security at Institutions of Higher Education (IHEs) Through Outreach and Compliance Efforts</t>
   </si>
   <si>
+    <t>Prevent fatalities, disease, and injury from mining and secure safe and healthful working conditions for America’s miners.</t>
+  </si>
+  <si>
+    <t>Provide regulatory relief to educational institutions and reduce burden by identifying time-consuming regulations, processes and policies and working to improve or eliminate them, while continuing to protect taxpayers from waste and abuse.</t>
+  </si>
+  <si>
+    <t>Defeat ISIS, al Qa’ida and other Transnational terrorist organizations, and counter state sponsored, regional, and local terrorist groups that threaten U.S. national security interests</t>
+  </si>
+  <si>
+    <t>Strengthen the defense of the federal network through the increased dissemination of cyber threat and vulnerability information in near real time to federal agencies. By September 30, 2019, federal agencies will mitigate 90% of significant (critical and high) vulnerabilities identified through DHS scanning of their networks within a designated timeline.</t>
+  </si>
+  <si>
+    <t>Housing Finance Reform: Support housing finance reform to resolve Government Sponsored Enterprise (GSE) conservatorships and prevent taxpayer bailouts of public and private mortgage finance entities, while promoting consumer choice within the mortgage market.</t>
+  </si>
+  <si>
+    <t>By September 30, 2019, the Department of Justice will combat cyber enabled threats and attacks by conducting 8,400 computer intrusion program deterrence, detections, disruptions and dismantlements, and by favorably resolving 90 percent of its cyber defendant cases.</t>
+  </si>
+  <si>
     <t>By September 30, 2019, EPA will increase by $16 billion the non-federal dollars leveraged by EPA water infrastructure finance programs (Clean Water and Drinking Water State Revolving Funds and the Water Infrastructure Finance and Innovation Act).</t>
   </si>
   <si>
@@ -3067,18 +3056,6 @@
     <t>Conduct a Full, Fair, and Accurate Decennial Census</t>
   </si>
   <si>
-    <t>&lt;div&gt;Provide regulatory relief to educational institutions and reduce burden by identifying time-consuming regulations, processes and policies and working to improve or eliminate them, while continuing to protect taxpayers from waste and abuse.&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;Prevent fatalities, disease, and injury from mining and secure safe and healthful working conditions for America’s miners.&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;Defeat ISIS, al Qa’ida and other Transnational terrorist organizations, and counter state sponsored, regional, and local terrorist groups that threaten U.S. national security interests&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;Housing Finance Reform: Support housing finance reform to resolve Government Sponsored Enterprise (GSE) conservatorships and prevent taxpayer bailouts of public and private mortgage finance entities, while promoting consumer choice within the mortgage market.&lt;/div&gt;</t>
-  </si>
-  <si>
     <t>Financial Sector Critical Infrastructure and Cybersecurity: Enhance security, improve resiliency, and reduce the risk of significant cybersecurity and other incidents to the financial sector’s critical infrastructure, domestically and internationally</t>
   </si>
   <si>
@@ -3094,33 +3071,40 @@
     <t>VA will institutionalize data supported and performance focused decision making that will improve the quality of outcomes</t>
   </si>
   <si>
-    <t>&lt;div&gt;Provide for Clean and Safe Water: Ensure waters are clean through improved water infrastructure and, in partnership with states and tribes, sustainably manage programs to support drinking water, aquatic ecosystems, recreational, economic, and subsistence activities.&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>&lt;div&gt;Improve healthcare quality and affordability in the Federal Employees Health Benefits (FEHB) Program with 75 percent of enrollees in quality, affordable plans&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Prioritize DOI infrastructure needs and reduce deferred maintenance_x000D_
-backlog</t>
-  </si>
-  <si>
-    <t>006APG18005</t>
-  </si>
-  <si>
-    <t>Prepare for a Full, Fair, and Accurate Decennial Census</t>
-  </si>
-  <si>
-    <t>009APG18069</t>
-  </si>
-  <si>
-    <t>Improve the Access to and the Quality and Transparency of _x000D_
-School Choice Options for K-12 Students</t>
-  </si>
-  <si>
-    <t>025APG18018</t>
-  </si>
-  <si>
-    <t>Transform Assisted Housing</t>
+    <t>018SO18251</t>
+  </si>
+  <si>
+    <t>014SO18254</t>
+  </si>
+  <si>
+    <t>010SO18255</t>
+  </si>
+  <si>
+    <t>Prioritize DOI infrastructure needs and reduce deferred maintenance backlog</t>
+  </si>
+  <si>
+    <t>015SO18258</t>
+  </si>
+  <si>
+    <t>020SO18259</t>
+  </si>
+  <si>
+    <t>Provide for Clean and Safe Water: Ensure waters are clean through improved water infrastructure and, in partnership with states and tribes, sustainably manage programs to support drinking water, aquatic ecosystems, recreational, economic, and subsistence activities.</t>
+  </si>
+  <si>
+    <t>010SO18256</t>
+  </si>
+  <si>
+    <t>Manage DOI water storage and delivery to resolve conflicts and expand capacity</t>
+  </si>
+  <si>
+    <t>010SO18257</t>
+  </si>
+  <si>
+    <t>Ensure public receives fair market value for resources; and recover costs where appropriate</t>
+  </si>
+  <si>
+    <t>Improve treatment for individuals with Serious Mental Illness (SMI). By September 30, 2019, HHS wants at least 280 evidence-based CSC programs providing services to individuals with FEP, representing a 7-fold increase in the number of such programs compared to 2014.</t>
   </si>
   <si>
     <t>009APG18088</t>
@@ -3155,10 +3139,20 @@
     <t>012APG18089</t>
   </si>
   <si>
+    <t>Enroll 1 million new apprentices (including registered programs, industry-recognized apprenticeships, and other non-registered programs) over the next five years to enable more Americans to obtain jobs that pay a family-sustaining wage through high quality earn-and-learn opportunities. By September 30, 2019, DOL will enroll 280,000 new apprentices as part of the agency’s broader efforts to promote and expand apprenticeship.opportunities. By September 30, 2019, DOL will enroll 280,000 new apprentices as part of the agency’s broader efforts to promote and expand apprenticeship.</t>
+  </si>
+  <si>
     <t>015APG18086</t>
   </si>
   <si>
     <t>Improved Business Qualification/Permitting Process (TTB)</t>
+  </si>
+  <si>
+    <t>Improve customer service in the hearings process by prioritizing those individuals who have waited the longest for a hearing decision. By September 30, 2018, SSA will complete 97 percent of cases that begin the fiscal year 430 days old or older (complete ~374,000 cases). By September 30, 2019, complete 95 percent of cases that begin the fiscal year 350 days old or older (complete ~385,000 cases).</t>
+  </si>
+  <si>
+    <t>Improve the Access to and the Quality and Transparency of _x000D_
+School Choice Options for K-12 Students</t>
   </si>
   <si>
     <t>020APG18093</t>
@@ -3191,19 +3185,7 @@
     <t>029APG18092</t>
   </si>
   <si>
-    <t>By September 30, 2019, the Department of Justice will combat cyber enabled threats and attacks by conducting 8,400 computer intrusion program deterrence, detections, disruptions and dismantlements, and by favorably resolving 90 percent of its cyber defendant cases.</t>
-  </si>
-  <si>
-    <t>Improve customer service in the hearings process by prioritizing those individuals who have waited the longest for a hearing decision. By September 30, 2018, SSA will complete 97 percent of cases that begin the fiscal year 430 days old or older (complete ~374,000 cases). By September 30, 2019, complete 95 percent of cases that begin the fiscal year 350 days old or older (complete ~385,000 cases).</t>
-  </si>
-  <si>
-    <t>Strengthen the defense of the federal network through the increased dissemination of cyber threat and vulnerability information in near real time to federal agencies. By September 30, 2019, federal agencies will mitigate 90% of significant (critical and high) vulnerabilities identified through DHS scanning of their networks within a designated timeline.</t>
-  </si>
-  <si>
-    <t>Improve treatment for individuals with Serious Mental Illness (SMI). By September 30, 2019, HHS wants at least 280 evidence-based CSC programs providing services to individuals with FEP, representing a 7-fold increase in the number of such programs compared to 2014.</t>
-  </si>
-  <si>
-    <t>Enroll 1 million new apprentices (including registered programs, industry-recognized apprenticeships, and other non-registered programs) over the next five years to enable more Americans to obtain jobs that pay a family-sustaining wage through high quality earn-and-learn opportunities. By September 30, 2019, DOL will enroll 280,000 new apprentices as part of the agency’s broader efforts to promote and expand apprenticeship.opportunities. By September 30, 2019, DOL will enroll 280,000 new apprentices as part of the agency’s broader efforts to promote and expand apprenticeship.</t>
+    <t>Improve healthcare quality and affordability in the Federal Employees Health Benefits (FEHB) Program with 75 percent of enrollees in quality, affordable plans</t>
   </si>
 </sst>
 </file>
@@ -3374,9 +3356,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_Pgov_APGs" displayName="Table_Pgov_APGs" ref="A1:G83" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G83"/>
-  <sortState ref="A2:G83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_Pgov_APGs" displayName="Table_Pgov_APGs" ref="A1:G80" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:G80"/>
+  <sortState ref="A2:G80">
     <sortCondition ref="C1:C80"/>
   </sortState>
   <tableColumns count="7">
@@ -3682,7 +3664,7 @@
   <sheetData>
     <row r="1" spans="7:23" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G1" s="6" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
@@ -3935,8 +3917,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J251"/>
   <sheetViews>
-    <sheetView topLeftCell="E68" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J86" sqref="J86"/>
+    <sheetView tabSelected="1" topLeftCell="E193" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J217" sqref="J217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3950,7 +3932,7 @@
     <col min="7" max="7" width="81.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="81.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4008,13 +3990,13 @@
         <v>228</v>
       </c>
       <c r="H2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I2" t="s">
         <v>237</v>
       </c>
       <c r="J2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -4040,13 +4022,13 @@
         <v>228</v>
       </c>
       <c r="H3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I3" t="s">
         <v>209</v>
       </c>
       <c r="J3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -4127,22 +4109,22 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F6" t="s">
         <v>251</v>
       </c>
       <c r="G6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I6" t="s">
         <v>349</v>
       </c>
       <c r="J6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -4159,22 +4141,22 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F7" t="s">
         <v>251</v>
       </c>
       <c r="G7" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="I7" t="s">
         <v>253</v>
       </c>
       <c r="J7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -4191,22 +4173,22 @@
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F8" t="s">
         <v>251</v>
       </c>
       <c r="G8" t="s">
+        <v>474</v>
+      </c>
+      <c r="H8" t="s">
         <v>475</v>
-      </c>
-      <c r="H8" t="s">
-        <v>476</v>
       </c>
       <c r="I8" t="s">
         <v>372</v>
       </c>
       <c r="J8" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -4296,13 +4278,13 @@
         <v>223</v>
       </c>
       <c r="H11" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="I11" t="s">
         <v>414</v>
       </c>
       <c r="J11" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4319,22 +4301,22 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F12" t="s">
         <v>265</v>
       </c>
       <c r="G12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H12" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="I12" t="s">
         <v>267</v>
       </c>
       <c r="J12" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -4360,13 +4342,13 @@
         <v>218</v>
       </c>
       <c r="H13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I13" t="s">
         <v>285</v>
       </c>
       <c r="J13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -4447,22 +4429,22 @@
         <v>9</v>
       </c>
       <c r="E16" t="s">
+        <v>467</v>
+      </c>
+      <c r="F16" t="s">
         <v>468</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>469</v>
       </c>
-      <c r="G16" t="s">
-        <v>470</v>
-      </c>
       <c r="H16" t="s">
+        <v>638</v>
+      </c>
+      <c r="I16" t="s">
+        <v>639</v>
+      </c>
+      <c r="J16" t="s">
         <v>640</v>
-      </c>
-      <c r="I16" t="s">
-        <v>641</v>
-      </c>
-      <c r="J16" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -4479,22 +4461,22 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
+        <v>467</v>
+      </c>
+      <c r="F17" t="s">
         <v>468</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>469</v>
       </c>
-      <c r="G17" t="s">
-        <v>470</v>
-      </c>
       <c r="H17" t="s">
+        <v>552</v>
+      </c>
+      <c r="I17" t="s">
+        <v>553</v>
+      </c>
+      <c r="J17" t="s">
         <v>554</v>
-      </c>
-      <c r="I17" t="s">
-        <v>555</v>
-      </c>
-      <c r="J17" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -4511,22 +4493,22 @@
         <v>9</v>
       </c>
       <c r="E18" t="s">
+        <v>467</v>
+      </c>
+      <c r="F18" t="s">
         <v>468</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>469</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>470</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>471</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>472</v>
-      </c>
-      <c r="J18" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -4616,13 +4598,13 @@
         <v>212</v>
       </c>
       <c r="H21" t="s">
+        <v>618</v>
+      </c>
+      <c r="I21" t="s">
+        <v>619</v>
+      </c>
+      <c r="J21" t="s">
         <v>620</v>
-      </c>
-      <c r="I21" t="s">
-        <v>621</v>
-      </c>
-      <c r="J21" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -4639,22 +4621,22 @@
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F22" t="s">
         <v>207</v>
       </c>
       <c r="G22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H22" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="I22" t="s">
         <v>237</v>
       </c>
       <c r="J22" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -4671,22 +4653,22 @@
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F23" t="s">
         <v>207</v>
       </c>
       <c r="G23" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H23" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="I23" t="s">
         <v>209</v>
       </c>
       <c r="J23" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -4703,22 +4685,22 @@
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F24" t="s">
         <v>207</v>
       </c>
       <c r="G24" t="s">
+        <v>524</v>
+      </c>
+      <c r="H24" t="s">
         <v>525</v>
-      </c>
-      <c r="H24" t="s">
-        <v>526</v>
       </c>
       <c r="I24" t="s">
         <v>376</v>
       </c>
       <c r="J24" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -4744,13 +4726,13 @@
         <v>326</v>
       </c>
       <c r="H25" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I25" t="s">
         <v>349</v>
       </c>
       <c r="J25" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -4808,13 +4790,13 @@
         <v>326</v>
       </c>
       <c r="H27" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="I27" t="s">
         <v>372</v>
       </c>
       <c r="J27" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -4840,13 +4822,13 @@
         <v>326</v>
       </c>
       <c r="H28" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="I28" t="s">
         <v>324</v>
       </c>
       <c r="J28" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -4872,13 +4854,13 @@
         <v>326</v>
       </c>
       <c r="H29" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I29" t="s">
         <v>280</v>
       </c>
       <c r="J29" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -4904,13 +4886,13 @@
         <v>288</v>
       </c>
       <c r="H30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="I30" t="s">
         <v>204</v>
       </c>
       <c r="J30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -4968,13 +4950,13 @@
         <v>288</v>
       </c>
       <c r="H32" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="I32" t="s">
         <v>414</v>
       </c>
       <c r="J32" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
@@ -5000,13 +4982,13 @@
         <v>288</v>
       </c>
       <c r="H33" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="I33" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J33" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
@@ -5032,13 +5014,13 @@
         <v>417</v>
       </c>
       <c r="H34" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="I34" t="s">
         <v>267</v>
       </c>
       <c r="J34" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
@@ -5128,13 +5110,13 @@
         <v>283</v>
       </c>
       <c r="H37" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="I37" t="s">
         <v>400</v>
       </c>
       <c r="J37" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
@@ -5160,13 +5142,13 @@
         <v>283</v>
       </c>
       <c r="H38" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="I38" t="s">
         <v>220</v>
       </c>
       <c r="J38" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -5192,13 +5174,13 @@
         <v>417</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>267</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -5224,7 +5206,7 @@
         <v>140</v>
       </c>
       <c r="H40" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="I40" t="s">
         <v>345</v>
@@ -5256,13 +5238,13 @@
         <v>316</v>
       </c>
       <c r="H41" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="I41" t="s">
         <v>237</v>
       </c>
       <c r="J41" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -5288,13 +5270,13 @@
         <v>316</v>
       </c>
       <c r="H42" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I42" t="s">
         <v>209</v>
       </c>
       <c r="J42" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
@@ -5320,13 +5302,13 @@
         <v>316</v>
       </c>
       <c r="H43" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I43" t="s">
         <v>376</v>
       </c>
       <c r="J43" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -5384,13 +5366,13 @@
         <v>278</v>
       </c>
       <c r="H45" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="I45" t="s">
         <v>349</v>
       </c>
       <c r="J45" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -5416,13 +5398,13 @@
         <v>278</v>
       </c>
       <c r="H46" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I46" t="s">
         <v>253</v>
       </c>
       <c r="J46" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
@@ -5448,13 +5430,13 @@
         <v>278</v>
       </c>
       <c r="H47" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I47" t="s">
         <v>372</v>
       </c>
       <c r="J47" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -5480,13 +5462,13 @@
         <v>278</v>
       </c>
       <c r="H48" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I48" t="s">
         <v>324</v>
       </c>
       <c r="J48" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -5535,22 +5517,22 @@
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F50" t="s">
         <v>202</v>
       </c>
       <c r="G50" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H50" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="I50" t="s">
         <v>204</v>
       </c>
       <c r="J50" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -5567,22 +5549,22 @@
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F51" t="s">
         <v>202</v>
       </c>
       <c r="G51" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H51" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="I51" t="s">
         <v>225</v>
       </c>
       <c r="J51" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -5599,22 +5581,22 @@
         <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F52" t="s">
         <v>202</v>
       </c>
       <c r="G52" t="s">
+        <v>502</v>
+      </c>
+      <c r="H52" t="s">
         <v>503</v>
-      </c>
-      <c r="H52" t="s">
-        <v>504</v>
       </c>
       <c r="I52" t="s">
         <v>414</v>
       </c>
       <c r="J52" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -5640,13 +5622,13 @@
         <v>273</v>
       </c>
       <c r="H53" t="s">
-        <v>425</v>
+        <v>274</v>
       </c>
       <c r="I53" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="J53" t="s">
-        <v>985</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
@@ -5672,13 +5654,13 @@
         <v>273</v>
       </c>
       <c r="H54" t="s">
-        <v>274</v>
+        <v>646</v>
       </c>
       <c r="I54" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="J54" t="s">
-        <v>276</v>
+        <v>647</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -5704,13 +5686,13 @@
         <v>273</v>
       </c>
       <c r="H55" t="s">
-        <v>648</v>
+        <v>567</v>
       </c>
       <c r="I55" t="s">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="J55" t="s">
-        <v>649</v>
+        <v>568</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -5736,13 +5718,13 @@
         <v>273</v>
       </c>
       <c r="H56" t="s">
-        <v>569</v>
+        <v>987</v>
       </c>
       <c r="I56" t="s">
-        <v>338</v>
+        <v>267</v>
       </c>
       <c r="J56" t="s">
-        <v>570</v>
+        <v>973</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
@@ -5768,7 +5750,7 @@
         <v>140</v>
       </c>
       <c r="H57" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="I57" t="s">
         <v>345</v>
@@ -5791,7 +5773,7 @@
         <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F58" t="s">
         <v>345</v>
@@ -5800,7 +5782,7 @@
         <v>140</v>
       </c>
       <c r="H58" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="I58" t="s">
         <v>345</v>
@@ -5864,13 +5846,13 @@
         <v>388</v>
       </c>
       <c r="H60" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I60" t="s">
         <v>209</v>
       </c>
       <c r="J60" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -5896,13 +5878,13 @@
         <v>388</v>
       </c>
       <c r="H61" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="I61" t="s">
         <v>376</v>
       </c>
       <c r="J61" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -5928,13 +5910,13 @@
         <v>388</v>
       </c>
       <c r="H62" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I62" t="s">
         <v>230</v>
       </c>
       <c r="J62" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -5960,13 +5942,13 @@
         <v>388</v>
       </c>
       <c r="H63" t="s">
+        <v>441</v>
+      </c>
+      <c r="I63" t="s">
         <v>442</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>443</v>
-      </c>
-      <c r="J63" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
@@ -6024,13 +6006,13 @@
         <v>347</v>
       </c>
       <c r="H65" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I65" t="s">
         <v>253</v>
       </c>
       <c r="J65" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
@@ -6056,13 +6038,13 @@
         <v>347</v>
       </c>
       <c r="H66" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I66" t="s">
         <v>372</v>
       </c>
       <c r="J66" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -6079,7 +6061,7 @@
         <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F67" t="s">
         <v>345</v>
@@ -6088,7 +6070,7 @@
         <v>140</v>
       </c>
       <c r="H67" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="I67" t="s">
         <v>345</v>
@@ -6120,13 +6102,13 @@
         <v>392</v>
       </c>
       <c r="H68" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I68" t="s">
         <v>237</v>
       </c>
       <c r="J68" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -6184,13 +6166,13 @@
         <v>392</v>
       </c>
       <c r="H70" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="I70" t="s">
         <v>376</v>
       </c>
       <c r="J70" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -6216,13 +6198,13 @@
         <v>392</v>
       </c>
       <c r="H71" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="I71" t="s">
         <v>230</v>
       </c>
       <c r="J71" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
@@ -6248,13 +6230,13 @@
         <v>392</v>
       </c>
       <c r="H72" t="s">
+        <v>533</v>
+      </c>
+      <c r="I72" t="s">
+        <v>442</v>
+      </c>
+      <c r="J72" t="s">
         <v>534</v>
-      </c>
-      <c r="I72" t="s">
-        <v>443</v>
-      </c>
-      <c r="J72" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -6280,13 +6262,13 @@
         <v>352</v>
       </c>
       <c r="H73" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I73" t="s">
         <v>349</v>
       </c>
       <c r="J73" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -6318,7 +6300,7 @@
         <v>253</v>
       </c>
       <c r="J74" t="s">
-        <v>986</v>
+        <v>972</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -6344,13 +6326,13 @@
         <v>352</v>
       </c>
       <c r="H75" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I75" t="s">
         <v>324</v>
       </c>
       <c r="J75" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
@@ -6376,13 +6358,13 @@
         <v>352</v>
       </c>
       <c r="H76" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I76" t="s">
         <v>280</v>
       </c>
       <c r="J76" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -6408,13 +6390,13 @@
         <v>352</v>
       </c>
       <c r="H77" t="s">
+        <v>512</v>
+      </c>
+      <c r="I77" t="s">
         <v>513</v>
       </c>
-      <c r="I77" t="s">
+      <c r="J77" t="s">
         <v>514</v>
-      </c>
-      <c r="J77" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
@@ -6504,13 +6486,13 @@
         <v>307</v>
       </c>
       <c r="H80" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="I80" t="s">
         <v>225</v>
       </c>
       <c r="J80" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -6568,13 +6550,13 @@
         <v>241</v>
       </c>
       <c r="H82" t="s">
+        <v>627</v>
+      </c>
+      <c r="I82" t="s">
+        <v>628</v>
+      </c>
+      <c r="J82" t="s">
         <v>629</v>
-      </c>
-      <c r="I82" t="s">
-        <v>630</v>
-      </c>
-      <c r="J82" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -6600,13 +6582,13 @@
         <v>241</v>
       </c>
       <c r="H83" t="s">
+        <v>539</v>
+      </c>
+      <c r="I83" t="s">
         <v>540</v>
       </c>
-      <c r="I83" t="s">
+      <c r="J83" t="s">
         <v>541</v>
-      </c>
-      <c r="J83" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -6632,13 +6614,13 @@
         <v>241</v>
       </c>
       <c r="H84" t="s">
+        <v>453</v>
+      </c>
+      <c r="I84" t="s">
         <v>454</v>
       </c>
-      <c r="I84" t="s">
+      <c r="J84" t="s">
         <v>455</v>
-      </c>
-      <c r="J84" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -6664,13 +6646,13 @@
         <v>352</v>
       </c>
       <c r="H85" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="I85" t="s">
         <v>372</v>
       </c>
       <c r="J85" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -6696,13 +6678,13 @@
         <v>341</v>
       </c>
       <c r="H86" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I86" t="s">
         <v>237</v>
       </c>
       <c r="J86" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -6728,13 +6710,13 @@
         <v>341</v>
       </c>
       <c r="H87" t="s">
-        <v>553</v>
+        <v>462</v>
       </c>
       <c r="I87" t="s">
-        <v>209</v>
+        <v>376</v>
       </c>
       <c r="J87" t="s">
-        <v>987</v>
+        <v>463</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -6760,13 +6742,13 @@
         <v>341</v>
       </c>
       <c r="H88" t="s">
-        <v>463</v>
+        <v>342</v>
       </c>
       <c r="I88" t="s">
-        <v>376</v>
+        <v>230</v>
       </c>
       <c r="J88" t="s">
-        <v>464</v>
+        <v>343</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -6792,13 +6774,13 @@
         <v>341</v>
       </c>
       <c r="H89" t="s">
-        <v>342</v>
+        <v>669</v>
       </c>
       <c r="I89" t="s">
-        <v>230</v>
+        <v>442</v>
       </c>
       <c r="J89" t="s">
-        <v>343</v>
+        <v>670</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -6815,22 +6797,22 @@
         <v>9</v>
       </c>
       <c r="E90" t="s">
-        <v>340</v>
+        <v>437</v>
       </c>
       <c r="F90" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="G90" t="s">
-        <v>341</v>
+        <v>438</v>
       </c>
       <c r="H90" t="s">
-        <v>671</v>
+        <v>610</v>
       </c>
       <c r="I90" t="s">
-        <v>443</v>
+        <v>349</v>
       </c>
       <c r="J90" t="s">
-        <v>672</v>
+        <v>611</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -6847,22 +6829,22 @@
         <v>9</v>
       </c>
       <c r="E91" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F91" t="s">
         <v>251</v>
       </c>
       <c r="G91" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H91" t="s">
-        <v>612</v>
+        <v>529</v>
       </c>
       <c r="I91" t="s">
-        <v>349</v>
+        <v>253</v>
       </c>
       <c r="J91" t="s">
-        <v>613</v>
+        <v>530</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -6879,22 +6861,22 @@
         <v>9</v>
       </c>
       <c r="E92" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F92" t="s">
         <v>251</v>
       </c>
       <c r="G92" t="s">
+        <v>438</v>
+      </c>
+      <c r="H92" t="s">
         <v>439</v>
       </c>
-      <c r="H92" t="s">
-        <v>530</v>
-      </c>
       <c r="I92" t="s">
-        <v>253</v>
+        <v>372</v>
       </c>
       <c r="J92" t="s">
-        <v>531</v>
+        <v>440</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -6911,22 +6893,22 @@
         <v>9</v>
       </c>
       <c r="E93" t="s">
-        <v>438</v>
+        <v>332</v>
       </c>
       <c r="F93" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="G93" t="s">
-        <v>439</v>
+        <v>333</v>
       </c>
       <c r="H93" t="s">
-        <v>440</v>
+        <v>334</v>
       </c>
       <c r="I93" t="s">
-        <v>372</v>
+        <v>204</v>
       </c>
       <c r="J93" t="s">
-        <v>441</v>
+        <v>335</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
@@ -6952,13 +6934,13 @@
         <v>333</v>
       </c>
       <c r="H94" t="s">
-        <v>334</v>
+        <v>667</v>
       </c>
       <c r="I94" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="J94" t="s">
-        <v>335</v>
+        <v>668</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -6984,13 +6966,13 @@
         <v>333</v>
       </c>
       <c r="H95" t="s">
-        <v>669</v>
+        <v>591</v>
       </c>
       <c r="I95" t="s">
-        <v>225</v>
+        <v>414</v>
       </c>
       <c r="J95" t="s">
-        <v>670</v>
+        <v>592</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
@@ -7016,13 +6998,13 @@
         <v>333</v>
       </c>
       <c r="H96" t="s">
-        <v>593</v>
+        <v>510</v>
       </c>
       <c r="I96" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="J96" t="s">
-        <v>594</v>
+        <v>511</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
@@ -7039,22 +7021,22 @@
         <v>9</v>
       </c>
       <c r="E97" t="s">
-        <v>332</v>
+        <v>302</v>
       </c>
       <c r="F97" t="s">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="G97" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="H97" t="s">
-        <v>511</v>
+        <v>435</v>
       </c>
       <c r="I97" t="s">
-        <v>450</v>
+        <v>267</v>
       </c>
       <c r="J97" t="s">
-        <v>512</v>
+        <v>436</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -7080,13 +7062,13 @@
         <v>303</v>
       </c>
       <c r="H98" t="s">
-        <v>436</v>
+        <v>304</v>
       </c>
       <c r="I98" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="J98" t="s">
-        <v>437</v>
+        <v>305</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
@@ -7112,13 +7094,13 @@
         <v>303</v>
       </c>
       <c r="H99" t="s">
-        <v>304</v>
+        <v>653</v>
       </c>
       <c r="I99" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="J99" t="s">
-        <v>305</v>
+        <v>654</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -7144,13 +7126,13 @@
         <v>303</v>
       </c>
       <c r="H100" t="s">
-        <v>655</v>
+        <v>575</v>
       </c>
       <c r="I100" t="s">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="J100" t="s">
-        <v>656</v>
+        <v>576</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
@@ -7167,22 +7149,22 @@
         <v>9</v>
       </c>
       <c r="E101" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="F101" t="s">
-        <v>265</v>
+        <v>207</v>
       </c>
       <c r="G101" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="H101" t="s">
-        <v>577</v>
+        <v>988</v>
       </c>
       <c r="I101" t="s">
-        <v>338</v>
+        <v>209</v>
       </c>
       <c r="J101" t="s">
-        <v>578</v>
+        <v>974</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -7199,22 +7181,22 @@
         <v>9</v>
       </c>
       <c r="E102" t="s">
+        <v>745</v>
+      </c>
+      <c r="F102" t="s">
+        <v>746</v>
+      </c>
+      <c r="G102" t="s">
+        <v>747</v>
+      </c>
+      <c r="H102" t="s">
+        <v>860</v>
+      </c>
+      <c r="I102" t="s">
+        <v>639</v>
+      </c>
+      <c r="J102" t="s">
         <v>749</v>
-      </c>
-      <c r="F102" t="s">
-        <v>750</v>
-      </c>
-      <c r="G102" t="s">
-        <v>751</v>
-      </c>
-      <c r="H102" t="s">
-        <v>869</v>
-      </c>
-      <c r="I102" t="s">
-        <v>641</v>
-      </c>
-      <c r="J102" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -7231,22 +7213,22 @@
         <v>9</v>
       </c>
       <c r="E103" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F103" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="G103" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="H103" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="I103" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J103" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -7263,22 +7245,22 @@
         <v>9</v>
       </c>
       <c r="E104" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="F104" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="G104" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="H104" t="s">
-        <v>861</v>
+        <v>989</v>
       </c>
       <c r="I104" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J104" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -7295,22 +7277,22 @@
         <v>9</v>
       </c>
       <c r="E105" t="s">
+        <v>714</v>
+      </c>
+      <c r="F105" t="s">
+        <v>715</v>
+      </c>
+      <c r="G105" t="s">
         <v>716</v>
       </c>
-      <c r="F105" t="s">
-        <v>717</v>
-      </c>
-      <c r="G105" t="s">
-        <v>718</v>
-      </c>
       <c r="H105" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="I105" t="s">
         <v>237</v>
       </c>
       <c r="J105" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
@@ -7327,22 +7309,22 @@
         <v>9</v>
       </c>
       <c r="E106" t="s">
+        <v>714</v>
+      </c>
+      <c r="F106" t="s">
+        <v>715</v>
+      </c>
+      <c r="G106" t="s">
         <v>716</v>
       </c>
-      <c r="F106" t="s">
-        <v>717</v>
-      </c>
-      <c r="G106" t="s">
-        <v>718</v>
-      </c>
       <c r="H106" t="s">
-        <v>754</v>
+        <v>819</v>
       </c>
       <c r="I106" t="s">
-        <v>209</v>
+        <v>376</v>
       </c>
       <c r="J106" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -7359,22 +7341,22 @@
         <v>9</v>
       </c>
       <c r="E107" t="s">
+        <v>714</v>
+      </c>
+      <c r="F107" t="s">
+        <v>715</v>
+      </c>
+      <c r="G107" t="s">
         <v>716</v>
       </c>
-      <c r="F107" t="s">
-        <v>717</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
+        <v>886</v>
+      </c>
+      <c r="I107" t="s">
+        <v>230</v>
+      </c>
+      <c r="J107" t="s">
         <v>718</v>
-      </c>
-      <c r="H107" t="s">
-        <v>825</v>
-      </c>
-      <c r="I107" t="s">
-        <v>376</v>
-      </c>
-      <c r="J107" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -7391,22 +7373,22 @@
         <v>9</v>
       </c>
       <c r="E108" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="F108" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="G108" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="H108" t="s">
-        <v>895</v>
+        <v>840</v>
       </c>
       <c r="I108" t="s">
-        <v>230</v>
+        <v>349</v>
       </c>
       <c r="J108" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -7423,22 +7405,22 @@
         <v>9</v>
       </c>
       <c r="E109" t="s">
+        <v>719</v>
+      </c>
+      <c r="F109" t="s">
+        <v>720</v>
+      </c>
+      <c r="G109" t="s">
         <v>721</v>
       </c>
-      <c r="F109" t="s">
-        <v>722</v>
-      </c>
-      <c r="G109" t="s">
-        <v>723</v>
-      </c>
       <c r="H109" t="s">
-        <v>848</v>
+        <v>756</v>
       </c>
       <c r="I109" t="s">
-        <v>349</v>
+        <v>253</v>
       </c>
       <c r="J109" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -7455,22 +7437,22 @@
         <v>9</v>
       </c>
       <c r="E110" t="s">
+        <v>719</v>
+      </c>
+      <c r="F110" t="s">
+        <v>720</v>
+      </c>
+      <c r="G110" t="s">
         <v>721</v>
       </c>
-      <c r="F110" t="s">
+      <c r="H110" t="s">
+        <v>893</v>
+      </c>
+      <c r="I110" t="s">
+        <v>324</v>
+      </c>
+      <c r="J110" t="s">
         <v>722</v>
-      </c>
-      <c r="G110" t="s">
-        <v>723</v>
-      </c>
-      <c r="H110" t="s">
-        <v>761</v>
-      </c>
-      <c r="I110" t="s">
-        <v>253</v>
-      </c>
-      <c r="J110" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -7487,22 +7469,22 @@
         <v>9</v>
       </c>
       <c r="E111" t="s">
+        <v>719</v>
+      </c>
+      <c r="F111" t="s">
+        <v>720</v>
+      </c>
+      <c r="G111" t="s">
         <v>721</v>
       </c>
-      <c r="F111" t="s">
-        <v>722</v>
-      </c>
-      <c r="G111" t="s">
-        <v>723</v>
-      </c>
       <c r="H111" t="s">
-        <v>832</v>
+        <v>814</v>
       </c>
       <c r="I111" t="s">
-        <v>372</v>
+        <v>280</v>
       </c>
       <c r="J111" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -7519,22 +7501,22 @@
         <v>9</v>
       </c>
       <c r="E112" t="s">
-        <v>721</v>
+        <v>736</v>
       </c>
       <c r="F112" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="G112" t="s">
-        <v>723</v>
+        <v>738</v>
       </c>
       <c r="H112" t="s">
-        <v>902</v>
+        <v>762</v>
       </c>
       <c r="I112" t="s">
-        <v>324</v>
+        <v>204</v>
       </c>
       <c r="J112" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -7551,22 +7533,22 @@
         <v>9</v>
       </c>
       <c r="E113" t="s">
-        <v>721</v>
+        <v>736</v>
       </c>
       <c r="F113" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="G113" t="s">
-        <v>723</v>
+        <v>738</v>
       </c>
       <c r="H113" t="s">
-        <v>820</v>
+        <v>833</v>
       </c>
       <c r="I113" t="s">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="J113" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -7583,22 +7565,22 @@
         <v>9</v>
       </c>
       <c r="E114" t="s">
+        <v>726</v>
+      </c>
+      <c r="F114" t="s">
+        <v>727</v>
+      </c>
+      <c r="G114" t="s">
+        <v>728</v>
+      </c>
+      <c r="H114" t="s">
+        <v>778</v>
+      </c>
+      <c r="I114" t="s">
+        <v>267</v>
+      </c>
+      <c r="J114" t="s">
         <v>740</v>
-      </c>
-      <c r="F114" t="s">
-        <v>741</v>
-      </c>
-      <c r="G114" t="s">
-        <v>742</v>
-      </c>
-      <c r="H114" t="s">
-        <v>767</v>
-      </c>
-      <c r="I114" t="s">
-        <v>204</v>
-      </c>
-      <c r="J114" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -7615,22 +7597,22 @@
         <v>9</v>
       </c>
       <c r="E115" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="F115" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="G115" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="H115" t="s">
-        <v>841</v>
+        <v>850</v>
       </c>
       <c r="I115" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="J115" t="s">
-        <v>748</v>
+        <v>729</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -7647,22 +7629,22 @@
         <v>9</v>
       </c>
       <c r="E116" t="s">
+        <v>726</v>
+      </c>
+      <c r="F116" t="s">
+        <v>727</v>
+      </c>
+      <c r="G116" t="s">
+        <v>728</v>
+      </c>
+      <c r="H116" t="s">
+        <v>835</v>
+      </c>
+      <c r="I116" t="s">
+        <v>293</v>
+      </c>
+      <c r="J116" t="s">
         <v>730</v>
-      </c>
-      <c r="F116" t="s">
-        <v>731</v>
-      </c>
-      <c r="G116" t="s">
-        <v>732</v>
-      </c>
-      <c r="H116" t="s">
-        <v>784</v>
-      </c>
-      <c r="I116" t="s">
-        <v>267</v>
-      </c>
-      <c r="J116" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -7679,22 +7661,22 @@
         <v>9</v>
       </c>
       <c r="E117" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F117" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G117" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H117" t="s">
-        <v>858</v>
+        <v>780</v>
       </c>
       <c r="I117" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="J117" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -7711,22 +7693,22 @@
         <v>9</v>
       </c>
       <c r="E118" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F118" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G118" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H118" t="s">
-        <v>843</v>
+        <v>852</v>
       </c>
       <c r="I118" t="s">
-        <v>293</v>
+        <v>400</v>
       </c>
       <c r="J118" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
@@ -7743,22 +7725,22 @@
         <v>9</v>
       </c>
       <c r="E119" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F119" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="G119" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H119" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="I119" t="s">
-        <v>285</v>
+        <v>220</v>
       </c>
       <c r="J119" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -7775,22 +7757,22 @@
         <v>9</v>
       </c>
       <c r="E120" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="F120" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="G120" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="H120" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
       <c r="I120" t="s">
-        <v>400</v>
+        <v>297</v>
       </c>
       <c r="J120" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
@@ -7807,22 +7789,22 @@
         <v>9</v>
       </c>
       <c r="E121" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
       <c r="F121" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
       <c r="G121" t="s">
-        <v>737</v>
+        <v>716</v>
       </c>
       <c r="H121" t="s">
-        <v>778</v>
+        <v>994</v>
       </c>
       <c r="I121" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="J121" t="s">
-        <v>745</v>
+        <v>995</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -7839,22 +7821,22 @@
         <v>9</v>
       </c>
       <c r="E122" t="s">
-        <v>735</v>
+        <v>719</v>
       </c>
       <c r="F122" t="s">
-        <v>736</v>
+        <v>720</v>
       </c>
       <c r="G122" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
       <c r="H122" t="s">
-        <v>853</v>
+        <v>996</v>
       </c>
       <c r="I122" t="s">
-        <v>297</v>
+        <v>372</v>
       </c>
       <c r="J122" t="s">
-        <v>738</v>
+        <v>997</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -7880,13 +7862,13 @@
         <v>375</v>
       </c>
       <c r="H123" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="I123" t="s">
         <v>237</v>
       </c>
       <c r="J123" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -7912,13 +7894,13 @@
         <v>375</v>
       </c>
       <c r="H124" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="I124" t="s">
         <v>209</v>
       </c>
       <c r="J124" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
@@ -7944,7 +7926,7 @@
         <v>375</v>
       </c>
       <c r="H125" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="I125" t="s">
         <v>376</v>
@@ -7976,13 +7958,13 @@
         <v>375</v>
       </c>
       <c r="H126" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="I126" t="s">
         <v>230</v>
       </c>
       <c r="J126" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
@@ -8008,13 +7990,13 @@
         <v>323</v>
       </c>
       <c r="H127" t="s">
-        <v>777</v>
+        <v>844</v>
       </c>
       <c r="I127" t="s">
-        <v>349</v>
+        <v>253</v>
       </c>
       <c r="J127" t="s">
-        <v>988</v>
+        <v>545</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
@@ -8040,13 +8022,13 @@
         <v>323</v>
       </c>
       <c r="H128" t="s">
-        <v>852</v>
+        <v>759</v>
       </c>
       <c r="I128" t="s">
-        <v>253</v>
+        <v>372</v>
       </c>
       <c r="J128" t="s">
-        <v>546</v>
+        <v>457</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -8072,13 +8054,13 @@
         <v>323</v>
       </c>
       <c r="H129" t="s">
-        <v>764</v>
+        <v>829</v>
       </c>
       <c r="I129" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="J129" t="s">
-        <v>458</v>
+        <v>982</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -8095,22 +8077,22 @@
         <v>9</v>
       </c>
       <c r="E130" t="s">
-        <v>322</v>
+        <v>520</v>
       </c>
       <c r="F130" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="G130" t="s">
-        <v>323</v>
+        <v>521</v>
       </c>
       <c r="H130" t="s">
-        <v>837</v>
+        <v>776</v>
       </c>
       <c r="I130" t="s">
-        <v>324</v>
+        <v>204</v>
       </c>
       <c r="J130" t="s">
-        <v>989</v>
+        <v>681</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -8127,22 +8109,22 @@
         <v>9</v>
       </c>
       <c r="E131" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F131" t="s">
         <v>202</v>
       </c>
       <c r="G131" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H131" t="s">
-        <v>782</v>
+        <v>848</v>
       </c>
       <c r="I131" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="J131" t="s">
-        <v>683</v>
+        <v>604</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -8159,22 +8141,22 @@
         <v>9</v>
       </c>
       <c r="E132" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F132" t="s">
         <v>202</v>
       </c>
       <c r="G132" t="s">
+        <v>521</v>
+      </c>
+      <c r="H132" t="s">
+        <v>769</v>
+      </c>
+      <c r="I132" t="s">
+        <v>414</v>
+      </c>
+      <c r="J132" t="s">
         <v>522</v>
-      </c>
-      <c r="H132" t="s">
-        <v>856</v>
-      </c>
-      <c r="I132" t="s">
-        <v>225</v>
-      </c>
-      <c r="J132" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
@@ -8191,22 +8173,22 @@
         <v>9</v>
       </c>
       <c r="E133" t="s">
-        <v>521</v>
+        <v>319</v>
       </c>
       <c r="F133" t="s">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="G133" t="s">
-        <v>522</v>
+        <v>320</v>
       </c>
       <c r="H133" t="s">
-        <v>774</v>
+        <v>861</v>
       </c>
       <c r="I133" t="s">
-        <v>414</v>
+        <v>267</v>
       </c>
       <c r="J133" t="s">
-        <v>523</v>
+        <v>456</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
@@ -8232,13 +8214,13 @@
         <v>320</v>
       </c>
       <c r="H134" t="s">
-        <v>870</v>
+        <v>785</v>
       </c>
       <c r="I134" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="J134" t="s">
-        <v>457</v>
+        <v>321</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
@@ -8264,13 +8246,13 @@
         <v>320</v>
       </c>
       <c r="H135" t="s">
-        <v>791</v>
+        <v>857</v>
       </c>
       <c r="I135" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="J135" t="s">
-        <v>321</v>
+        <v>660</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
@@ -8287,22 +8269,22 @@
         <v>9</v>
       </c>
       <c r="E136" t="s">
-        <v>319</v>
+        <v>427</v>
       </c>
       <c r="F136" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="G136" t="s">
-        <v>320</v>
+        <v>428</v>
       </c>
       <c r="H136" t="s">
-        <v>866</v>
+        <v>796</v>
       </c>
       <c r="I136" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="J136" t="s">
-        <v>662</v>
+        <v>983</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
@@ -8319,22 +8301,22 @@
         <v>9</v>
       </c>
       <c r="E137" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F137" t="s">
         <v>217</v>
       </c>
       <c r="G137" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H137" t="s">
-        <v>802</v>
+        <v>868</v>
       </c>
       <c r="I137" t="s">
-        <v>285</v>
+        <v>400</v>
       </c>
       <c r="J137" t="s">
-        <v>990</v>
+        <v>519</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -8351,22 +8333,22 @@
         <v>9</v>
       </c>
       <c r="E138" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F138" t="s">
         <v>217</v>
       </c>
       <c r="G138" t="s">
+        <v>428</v>
+      </c>
+      <c r="H138" t="s">
+        <v>791</v>
+      </c>
+      <c r="I138" t="s">
+        <v>220</v>
+      </c>
+      <c r="J138" t="s">
         <v>429</v>
-      </c>
-      <c r="H138" t="s">
-        <v>877</v>
-      </c>
-      <c r="I138" t="s">
-        <v>400</v>
-      </c>
-      <c r="J138" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -8383,22 +8365,22 @@
         <v>9</v>
       </c>
       <c r="E139" t="s">
-        <v>428</v>
+        <v>322</v>
       </c>
       <c r="F139" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="G139" t="s">
-        <v>429</v>
+        <v>323</v>
       </c>
       <c r="H139" t="s">
-        <v>797</v>
+        <v>991</v>
       </c>
       <c r="I139" t="s">
-        <v>220</v>
+        <v>349</v>
       </c>
       <c r="J139" t="s">
-        <v>430</v>
+        <v>976</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -8415,22 +8397,22 @@
         <v>9</v>
       </c>
       <c r="E140" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F140" t="s">
         <v>207</v>
       </c>
       <c r="G140" t="s">
+        <v>446</v>
+      </c>
+      <c r="H140" t="s">
         <v>447</v>
-      </c>
-      <c r="H140" t="s">
-        <v>448</v>
       </c>
       <c r="I140" t="s">
         <v>237</v>
       </c>
       <c r="J140" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -8488,13 +8470,13 @@
         <v>355</v>
       </c>
       <c r="H142" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I142" t="s">
         <v>253</v>
       </c>
       <c r="J142" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -8520,13 +8502,13 @@
         <v>355</v>
       </c>
       <c r="H143" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="I143" t="s">
         <v>372</v>
       </c>
       <c r="J143" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
@@ -8552,13 +8534,13 @@
         <v>355</v>
       </c>
       <c r="H144" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I144" t="s">
         <v>324</v>
       </c>
       <c r="J144" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -8584,13 +8566,13 @@
         <v>311</v>
       </c>
       <c r="H145" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="I145" t="s">
         <v>204</v>
       </c>
       <c r="J145" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -8616,7 +8598,7 @@
         <v>311</v>
       </c>
       <c r="H146" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="I146" t="s">
         <v>225</v>
@@ -8639,22 +8621,22 @@
         <v>9</v>
       </c>
       <c r="E147" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F147" t="s">
         <v>265</v>
       </c>
       <c r="G147" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H147" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="I147" t="s">
         <v>267</v>
       </c>
       <c r="J147" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
@@ -8671,22 +8653,22 @@
         <v>9</v>
       </c>
       <c r="E148" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F148" t="s">
         <v>265</v>
       </c>
       <c r="G148" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H148" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="I148" t="s">
         <v>275</v>
       </c>
       <c r="J148" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
@@ -8712,7 +8694,7 @@
         <v>259</v>
       </c>
       <c r="H149" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="I149" t="s">
         <v>237</v>
@@ -8744,13 +8726,13 @@
         <v>259</v>
       </c>
       <c r="H150" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="I150" t="s">
         <v>209</v>
       </c>
       <c r="J150" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -8767,22 +8749,22 @@
         <v>9</v>
       </c>
       <c r="E151" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F151" t="s">
         <v>251</v>
       </c>
       <c r="G151" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H151" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="I151" t="s">
         <v>349</v>
       </c>
       <c r="J151" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -8799,22 +8781,22 @@
         <v>9</v>
       </c>
       <c r="E152" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F152" t="s">
         <v>251</v>
       </c>
       <c r="G152" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H152" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="I152" t="s">
         <v>253</v>
       </c>
       <c r="J152" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -8840,7 +8822,7 @@
         <v>256</v>
       </c>
       <c r="H153" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="I153" t="s">
         <v>204</v>
@@ -8872,7 +8854,7 @@
         <v>256</v>
       </c>
       <c r="H154" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="I154" t="s">
         <v>225</v>
@@ -8904,13 +8886,13 @@
         <v>408</v>
       </c>
       <c r="H155" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="I155" t="s">
         <v>267</v>
       </c>
       <c r="J155" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -8936,13 +8918,13 @@
         <v>408</v>
       </c>
       <c r="H156" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="I156" t="s">
         <v>275</v>
       </c>
       <c r="J156" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -8968,13 +8950,13 @@
         <v>408</v>
       </c>
       <c r="H157" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="I157" t="s">
         <v>293</v>
       </c>
       <c r="J157" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -9000,13 +8982,13 @@
         <v>408</v>
       </c>
       <c r="H158" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="I158" t="s">
         <v>338</v>
       </c>
       <c r="J158" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -9032,7 +9014,7 @@
         <v>208</v>
       </c>
       <c r="H159" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="I159" t="s">
         <v>237</v>
@@ -9064,13 +9046,13 @@
         <v>208</v>
       </c>
       <c r="H160" t="s">
-        <v>830</v>
+        <v>890</v>
       </c>
       <c r="I160" t="s">
-        <v>209</v>
+        <v>376</v>
       </c>
       <c r="J160" t="s">
-        <v>994</v>
+        <v>617</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -9096,13 +9078,13 @@
         <v>208</v>
       </c>
       <c r="H161" t="s">
-        <v>899</v>
+        <v>811</v>
       </c>
       <c r="I161" t="s">
-        <v>376</v>
+        <v>230</v>
       </c>
       <c r="J161" t="s">
-        <v>619</v>
+        <v>900</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -9119,22 +9101,22 @@
         <v>9</v>
       </c>
       <c r="E162" t="s">
-        <v>206</v>
+        <v>358</v>
       </c>
       <c r="F162" t="s">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="G162" t="s">
-        <v>208</v>
+        <v>359</v>
       </c>
       <c r="H162" t="s">
-        <v>817</v>
+        <v>760</v>
       </c>
       <c r="I162" t="s">
-        <v>230</v>
+        <v>349</v>
       </c>
       <c r="J162" t="s">
-        <v>909</v>
+        <v>466</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
@@ -9160,13 +9142,13 @@
         <v>359</v>
       </c>
       <c r="H163" t="s">
-        <v>765</v>
+        <v>830</v>
       </c>
       <c r="I163" t="s">
-        <v>349</v>
+        <v>253</v>
       </c>
       <c r="J163" t="s">
-        <v>467</v>
+        <v>360</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -9183,22 +9165,22 @@
         <v>9</v>
       </c>
       <c r="E164" t="s">
-        <v>358</v>
+        <v>201</v>
       </c>
       <c r="F164" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="G164" t="s">
-        <v>359</v>
+        <v>203</v>
       </c>
       <c r="H164" t="s">
-        <v>838</v>
+        <v>777</v>
       </c>
       <c r="I164" t="s">
-        <v>253</v>
+        <v>204</v>
       </c>
       <c r="J164" t="s">
-        <v>360</v>
+        <v>205</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
@@ -9224,13 +9206,13 @@
         <v>203</v>
       </c>
       <c r="H165" t="s">
-        <v>783</v>
+        <v>849</v>
       </c>
       <c r="I165" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="J165" t="s">
-        <v>205</v>
+        <v>616</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
@@ -9256,13 +9238,13 @@
         <v>203</v>
       </c>
       <c r="H166" t="s">
-        <v>857</v>
+        <v>770</v>
       </c>
       <c r="I166" t="s">
-        <v>225</v>
+        <v>414</v>
       </c>
       <c r="J166" t="s">
-        <v>618</v>
+        <v>535</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -9288,13 +9270,13 @@
         <v>203</v>
       </c>
       <c r="H167" t="s">
-        <v>775</v>
+        <v>841</v>
       </c>
       <c r="I167" t="s">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="J167" t="s">
-        <v>536</v>
+        <v>450</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -9320,13 +9302,13 @@
         <v>203</v>
       </c>
       <c r="H168" t="s">
-        <v>849</v>
+        <v>757</v>
       </c>
       <c r="I168" t="s">
-        <v>450</v>
+        <v>313</v>
       </c>
       <c r="J168" t="s">
-        <v>451</v>
+        <v>314</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -9343,22 +9325,22 @@
         <v>9</v>
       </c>
       <c r="E169" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="F169" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="G169" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="H169" t="s">
-        <v>762</v>
+        <v>992</v>
       </c>
       <c r="I169" t="s">
-        <v>313</v>
+        <v>209</v>
       </c>
       <c r="J169" t="s">
-        <v>314</v>
+        <v>993</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -9375,22 +9357,22 @@
         <v>9</v>
       </c>
       <c r="E170" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F170" t="s">
         <v>207</v>
       </c>
       <c r="G170" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H170" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="I170" t="s">
         <v>237</v>
       </c>
       <c r="J170" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -9407,22 +9389,22 @@
         <v>9</v>
       </c>
       <c r="E171" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F171" t="s">
         <v>207</v>
       </c>
       <c r="G171" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H171" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="I171" t="s">
         <v>209</v>
       </c>
       <c r="J171" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -9448,7 +9430,7 @@
         <v>270</v>
       </c>
       <c r="H172" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="I172" t="s">
         <v>349</v>
@@ -9480,7 +9462,7 @@
         <v>270</v>
       </c>
       <c r="H173" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="I173" t="s">
         <v>253</v>
@@ -9512,13 +9494,13 @@
         <v>270</v>
       </c>
       <c r="H174" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="I174" t="s">
         <v>372</v>
       </c>
       <c r="J174" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -9544,13 +9526,13 @@
         <v>413</v>
       </c>
       <c r="H175" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="I175" t="s">
         <v>204</v>
       </c>
       <c r="J175" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
@@ -9576,13 +9558,13 @@
         <v>413</v>
       </c>
       <c r="H176" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="I176" t="s">
         <v>225</v>
       </c>
       <c r="J176" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -9608,7 +9590,7 @@
         <v>413</v>
       </c>
       <c r="H177" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="I177" t="s">
         <v>414</v>
@@ -9640,7 +9622,7 @@
         <v>266</v>
       </c>
       <c r="H178" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="I178" t="s">
         <v>267</v>
@@ -9672,13 +9654,13 @@
         <v>266</v>
       </c>
       <c r="H179" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="I179" t="s">
         <v>275</v>
       </c>
       <c r="J179" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -9704,13 +9686,13 @@
         <v>266</v>
       </c>
       <c r="H180" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="I180" t="s">
         <v>293</v>
       </c>
       <c r="J180" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -9736,7 +9718,7 @@
         <v>262</v>
       </c>
       <c r="H181" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="I181" t="s">
         <v>237</v>
@@ -9768,13 +9750,13 @@
         <v>262</v>
       </c>
       <c r="H182" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="I182" t="s">
         <v>209</v>
       </c>
       <c r="J182" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
@@ -9800,13 +9782,13 @@
         <v>262</v>
       </c>
       <c r="H183" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="I183" t="s">
         <v>376</v>
       </c>
       <c r="J183" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -9832,13 +9814,13 @@
         <v>262</v>
       </c>
       <c r="H184" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="I184" t="s">
         <v>230</v>
       </c>
       <c r="J184" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -9864,7 +9846,7 @@
         <v>252</v>
       </c>
       <c r="H185" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="I185" t="s">
         <v>349</v>
@@ -9896,7 +9878,7 @@
         <v>252</v>
       </c>
       <c r="H186" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="I186" t="s">
         <v>253</v>
@@ -9928,13 +9910,13 @@
         <v>252</v>
       </c>
       <c r="H187" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="I187" t="s">
         <v>372</v>
       </c>
       <c r="J187" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -9960,13 +9942,13 @@
         <v>252</v>
       </c>
       <c r="H188" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="I188" t="s">
         <v>324</v>
       </c>
       <c r="J188" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -9992,13 +9974,13 @@
         <v>379</v>
       </c>
       <c r="H189" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="I189" t="s">
         <v>204</v>
       </c>
       <c r="J189" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
@@ -10024,7 +10006,7 @@
         <v>379</v>
       </c>
       <c r="H190" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="I190" t="s">
         <v>225</v>
@@ -10056,13 +10038,13 @@
         <v>379</v>
       </c>
       <c r="H191" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="I191" t="s">
         <v>414</v>
       </c>
       <c r="J191" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
@@ -10088,13 +10070,13 @@
         <v>379</v>
       </c>
       <c r="H192" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="I192" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J192" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -10120,13 +10102,13 @@
         <v>330</v>
       </c>
       <c r="H193" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="I193" t="s">
         <v>267</v>
       </c>
       <c r="J193" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
@@ -10152,13 +10134,13 @@
         <v>330</v>
       </c>
       <c r="H194" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="I194" t="s">
         <v>275</v>
       </c>
       <c r="J194" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
@@ -10184,7 +10166,7 @@
         <v>330</v>
       </c>
       <c r="H195" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="I195" t="s">
         <v>293</v>
@@ -10216,13 +10198,13 @@
         <v>330</v>
       </c>
       <c r="H196" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="I196" t="s">
         <v>338</v>
       </c>
       <c r="J196" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -10248,13 +10230,13 @@
         <v>296</v>
       </c>
       <c r="H197" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="I197" t="s">
         <v>285</v>
       </c>
       <c r="J197" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
@@ -10280,13 +10262,13 @@
         <v>296</v>
       </c>
       <c r="H198" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="I198" t="s">
         <v>400</v>
       </c>
       <c r="J198" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
@@ -10312,13 +10294,13 @@
         <v>296</v>
       </c>
       <c r="H199" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="I199" t="s">
         <v>220</v>
       </c>
       <c r="J199" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
@@ -10344,7 +10326,7 @@
         <v>296</v>
       </c>
       <c r="H200" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="I200" t="s">
         <v>297</v>
@@ -10376,7 +10358,7 @@
         <v>385</v>
       </c>
       <c r="H201" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="I201" t="s">
         <v>237</v>
@@ -10408,13 +10390,13 @@
         <v>385</v>
       </c>
       <c r="H202" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="I202" t="s">
         <v>209</v>
       </c>
       <c r="J202" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -10431,22 +10413,22 @@
         <v>9</v>
       </c>
       <c r="E203" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F203" t="s">
         <v>251</v>
       </c>
       <c r="G203" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H203" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="I203" t="s">
         <v>349</v>
       </c>
       <c r="J203" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -10463,22 +10445,22 @@
         <v>9</v>
       </c>
       <c r="E204" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="F204" t="s">
         <v>251</v>
       </c>
       <c r="G204" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H204" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="I204" t="s">
         <v>253</v>
       </c>
       <c r="J204" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -10504,13 +10486,13 @@
         <v>382</v>
       </c>
       <c r="H205" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="I205" t="s">
         <v>204</v>
       </c>
       <c r="J205" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
@@ -10536,7 +10518,7 @@
         <v>382</v>
       </c>
       <c r="H206" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="I206" t="s">
         <v>225</v>
@@ -10568,13 +10550,13 @@
         <v>382</v>
       </c>
       <c r="H207" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="I207" t="s">
         <v>414</v>
       </c>
       <c r="J207" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -10600,13 +10582,13 @@
         <v>337</v>
       </c>
       <c r="H208" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="I208" t="s">
         <v>267</v>
       </c>
       <c r="J208" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
@@ -10632,13 +10614,13 @@
         <v>337</v>
       </c>
       <c r="H209" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="I209" t="s">
         <v>275</v>
       </c>
       <c r="J209" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
@@ -10664,13 +10646,13 @@
         <v>337</v>
       </c>
       <c r="H210" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="I210" t="s">
         <v>293</v>
       </c>
       <c r="J210" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -10696,7 +10678,7 @@
         <v>337</v>
       </c>
       <c r="H211" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="I211" t="s">
         <v>338</v>
@@ -10728,13 +10710,13 @@
         <v>337</v>
       </c>
       <c r="H212" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="I212" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="J212" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -10760,13 +10742,13 @@
         <v>337</v>
       </c>
       <c r="H213" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="I213" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J213" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
@@ -10792,7 +10774,7 @@
         <v>368</v>
       </c>
       <c r="H214" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="I214" t="s">
         <v>237</v>
@@ -10824,13 +10806,13 @@
         <v>368</v>
       </c>
       <c r="H215" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="I215" t="s">
         <v>209</v>
       </c>
       <c r="J215" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -10847,22 +10829,22 @@
         <v>9</v>
       </c>
       <c r="E216" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F216" t="s">
         <v>251</v>
       </c>
       <c r="G216" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H216" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="I216" t="s">
         <v>349</v>
       </c>
       <c r="J216" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
@@ -10879,22 +10861,22 @@
         <v>9</v>
       </c>
       <c r="E217" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F217" t="s">
         <v>251</v>
       </c>
       <c r="G217" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H217" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="I217" t="s">
         <v>253</v>
       </c>
       <c r="J217" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
@@ -10920,13 +10902,13 @@
         <v>362</v>
       </c>
       <c r="H218" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="I218" t="s">
         <v>204</v>
       </c>
       <c r="J218" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -10952,7 +10934,7 @@
         <v>362</v>
       </c>
       <c r="H219" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="I219" t="s">
         <v>225</v>
@@ -10984,13 +10966,13 @@
         <v>249</v>
       </c>
       <c r="H220" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="I220" t="s">
         <v>237</v>
       </c>
       <c r="J220" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -11016,13 +10998,13 @@
         <v>249</v>
       </c>
       <c r="H221" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="I221" t="s">
         <v>209</v>
       </c>
       <c r="J221" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -11048,7 +11030,7 @@
         <v>249</v>
       </c>
       <c r="H222" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="I222" t="s">
         <v>376</v>
@@ -11080,13 +11062,13 @@
         <v>249</v>
       </c>
       <c r="H223" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="I223" t="s">
         <v>230</v>
       </c>
       <c r="J223" t="s">
-        <v>995</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -11112,13 +11094,13 @@
         <v>249</v>
       </c>
       <c r="H224" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="I224" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J224" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -11144,13 +11126,13 @@
         <v>371</v>
       </c>
       <c r="H225" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="I225" t="s">
         <v>349</v>
       </c>
       <c r="J225" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -11176,13 +11158,13 @@
         <v>371</v>
       </c>
       <c r="H226" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="I226" t="s">
         <v>253</v>
       </c>
       <c r="J226" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -11208,7 +11190,7 @@
         <v>371</v>
       </c>
       <c r="H227" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="I227" t="s">
         <v>372</v>
@@ -11240,7 +11222,7 @@
         <v>246</v>
       </c>
       <c r="H228" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="I228" t="s">
         <v>204</v>
@@ -11272,13 +11254,13 @@
         <v>246</v>
       </c>
       <c r="H229" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="I229" t="s">
         <v>225</v>
       </c>
       <c r="J229" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -11304,13 +11286,13 @@
         <v>365</v>
       </c>
       <c r="H230" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="I230" t="s">
         <v>267</v>
       </c>
       <c r="J230" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -11336,13 +11318,13 @@
         <v>365</v>
       </c>
       <c r="H231" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="I231" t="s">
         <v>275</v>
       </c>
       <c r="J231" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -11368,7 +11350,7 @@
         <v>365</v>
       </c>
       <c r="H232" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="I232" t="s">
         <v>293</v>
@@ -11400,13 +11382,13 @@
         <v>365</v>
       </c>
       <c r="H233" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="I233" t="s">
         <v>338</v>
       </c>
       <c r="J233" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -11423,22 +11405,22 @@
         <v>9</v>
       </c>
       <c r="E234" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F234" t="s">
         <v>207</v>
       </c>
       <c r="G234" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H234" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="I234" t="s">
         <v>237</v>
       </c>
       <c r="J234" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
@@ -11455,22 +11437,22 @@
         <v>9</v>
       </c>
       <c r="E235" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F235" t="s">
         <v>207</v>
       </c>
       <c r="G235" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H235" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="I235" t="s">
         <v>209</v>
       </c>
       <c r="J235" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -11487,22 +11469,22 @@
         <v>9</v>
       </c>
       <c r="E236" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F236" t="s">
         <v>207</v>
       </c>
       <c r="G236" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H236" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="I236" t="s">
         <v>376</v>
       </c>
       <c r="J236" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -11528,13 +11510,13 @@
         <v>300</v>
       </c>
       <c r="H237" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="I237" t="s">
         <v>349</v>
       </c>
       <c r="J237" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -11560,7 +11542,7 @@
         <v>300</v>
       </c>
       <c r="H238" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="I238" t="s">
         <v>253</v>
@@ -11592,13 +11574,13 @@
         <v>300</v>
       </c>
       <c r="H239" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="I239" t="s">
         <v>372</v>
       </c>
       <c r="J239" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -11615,22 +11597,22 @@
         <v>9</v>
       </c>
       <c r="E240" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F240" t="s">
         <v>202</v>
       </c>
       <c r="G240" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="H240" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="I240" t="s">
         <v>204</v>
       </c>
       <c r="J240" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
@@ -11656,13 +11638,13 @@
         <v>292</v>
       </c>
       <c r="H241" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="I241" t="s">
         <v>267</v>
       </c>
       <c r="J241" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
@@ -11688,13 +11670,13 @@
         <v>292</v>
       </c>
       <c r="H242" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="I242" t="s">
         <v>275</v>
       </c>
       <c r="J242" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
@@ -11720,7 +11702,7 @@
         <v>292</v>
       </c>
       <c r="H243" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="I243" t="s">
         <v>293</v>
@@ -11752,7 +11734,7 @@
         <v>236</v>
       </c>
       <c r="H244" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="I244" t="s">
         <v>237</v>
@@ -11784,13 +11766,13 @@
         <v>236</v>
       </c>
       <c r="H245" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="I245" t="s">
         <v>209</v>
       </c>
       <c r="J245" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
@@ -11807,22 +11789,22 @@
         <v>9</v>
       </c>
       <c r="E246" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F246" t="s">
         <v>251</v>
       </c>
       <c r="G246" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H246" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="I246" t="s">
         <v>349</v>
       </c>
       <c r="J246" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
@@ -11839,22 +11821,22 @@
         <v>9</v>
       </c>
       <c r="E247" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F247" t="s">
         <v>251</v>
       </c>
       <c r="G247" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H247" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="I247" t="s">
         <v>253</v>
       </c>
       <c r="J247" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
@@ -11880,7 +11862,7 @@
         <v>233</v>
       </c>
       <c r="H248" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="I248" t="s">
         <v>204</v>
@@ -11912,7 +11894,7 @@
         <v>233</v>
       </c>
       <c r="H249" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="I249" t="s">
         <v>225</v>
@@ -11944,13 +11926,13 @@
         <v>233</v>
       </c>
       <c r="H250" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="I250" t="s">
         <v>414</v>
       </c>
       <c r="J250" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
@@ -11976,13 +11958,13 @@
         <v>233</v>
       </c>
       <c r="H251" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="I251" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J251" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -11997,10 +11979,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="D25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12011,7 +11993,7 @@
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="90.85546875" customWidth="1"/>
-    <col min="7" max="7" width="255.5703125" customWidth="1"/>
+    <col min="7" max="7" width="101.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -12143,18 +12125,18 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>997</v>
+        <v>53</v>
       </c>
       <c r="F6" t="s">
-        <v>998</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>958</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43143</v>
+        <v>43187</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
@@ -12166,36 +12148,36 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>948</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>969</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>949</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43187</v>
+        <v>43143</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>957</v>
+        <v>126</v>
       </c>
       <c r="F8" t="s">
-        <v>978</v>
+        <v>127</v>
       </c>
       <c r="G8" t="s">
-        <v>958</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -12212,13 +12194,13 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -12235,13 +12217,13 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>141</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12249,22 +12231,22 @@
         <v>43143</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>141</v>
+        <v>86</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>142</v>
+        <v>1010</v>
       </c>
       <c r="G11" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -12281,13 +12263,13 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="F12" t="s">
-        <v>1000</v>
+        <v>174</v>
       </c>
       <c r="G12" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -12304,13 +12286,13 @@
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>173</v>
+        <v>119</v>
       </c>
       <c r="F13" t="s">
-        <v>174</v>
+        <v>971</v>
       </c>
       <c r="G13" t="s">
-        <v>175</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -12327,13 +12309,13 @@
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>120</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -12341,22 +12323,22 @@
         <v>43143</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>138</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>932</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -12364,22 +12346,22 @@
         <v>43143</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>941</v>
+        <v>151</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -12396,13 +12378,13 @@
         <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s">
-        <v>153</v>
+        <v>975</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -12410,22 +12392,22 @@
         <v>43143</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>925</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s">
-        <v>1022</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -12442,13 +12424,13 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>934</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="G19" t="s">
-        <v>75</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -12465,18 +12447,18 @@
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>913</v>
       </c>
       <c r="F20" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="G20" t="s">
-        <v>162</v>
+        <v>903</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43143</v>
+        <v>43196</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -12488,10 +12470,10 @@
         <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>1001</v>
+        <v>952</v>
       </c>
       <c r="F21" t="s">
-        <v>1002</v>
+        <v>953</v>
       </c>
       <c r="G21" t="s">
         <v>95</v>
@@ -12502,50 +12484,50 @@
         <v>43143</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>922</v>
+        <v>947</v>
       </c>
       <c r="F22" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="G22" t="s">
-        <v>912</v>
+        <v>977</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43196</v>
+        <v>43224</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>961</v>
+        <v>1001</v>
       </c>
       <c r="F23" t="s">
-        <v>962</v>
+        <v>137</v>
       </c>
       <c r="G23" t="s">
-        <v>95</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43143</v>
+        <v>43224</v>
       </c>
       <c r="B24" t="s">
         <v>56</v>
@@ -12557,59 +12539,59 @@
         <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>956</v>
+        <v>1003</v>
       </c>
       <c r="F24" t="s">
-        <v>193</v>
+        <v>1004</v>
       </c>
       <c r="G24" t="s">
-        <v>1020</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43224</v>
+        <v>43143</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>1005</v>
+        <v>926</v>
       </c>
       <c r="F25" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G25" t="s">
-        <v>1006</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43224</v>
+        <v>43143</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C26" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>1007</v>
+        <v>131</v>
       </c>
       <c r="F26" t="s">
-        <v>1008</v>
+        <v>46</v>
       </c>
       <c r="G26" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -12626,13 +12608,13 @@
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>935</v>
+        <v>917</v>
       </c>
       <c r="F27" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="G27" t="s">
-        <v>133</v>
+        <v>904</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -12649,18 +12631,18 @@
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>131</v>
+        <v>940</v>
       </c>
       <c r="F28" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>905</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43143</v>
+        <v>43224</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
@@ -12672,13 +12654,13 @@
         <v>9</v>
       </c>
       <c r="E29" t="s">
-        <v>926</v>
+        <v>1005</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="G29" t="s">
-        <v>913</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -12686,45 +12668,45 @@
         <v>43143</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
       </c>
       <c r="E30" t="s">
-        <v>949</v>
+        <v>911</v>
       </c>
       <c r="F30" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="G30" t="s">
-        <v>914</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43224</v>
+        <v>43143</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>1009</v>
+        <v>936</v>
       </c>
       <c r="F31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G31" t="s">
-        <v>1024</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -12741,13 +12723,13 @@
         <v>9</v>
       </c>
       <c r="E32" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="F32" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -12764,13 +12746,13 @@
         <v>9</v>
       </c>
       <c r="E33" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F33" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="G33" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -12787,13 +12769,13 @@
         <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="F34" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="G34" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -12810,13 +12792,13 @@
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="F35" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="G35" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -12833,13 +12815,13 @@
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="F36" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="G36" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -12847,22 +12829,22 @@
         <v>43143</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
         <v>9</v>
       </c>
       <c r="E37" t="s">
-        <v>955</v>
+        <v>923</v>
       </c>
       <c r="F37" t="s">
-        <v>184</v>
+        <v>965</v>
       </c>
       <c r="G37" t="s">
-        <v>185</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -12870,22 +12852,22 @@
         <v>43143</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
         <v>9</v>
       </c>
       <c r="E38" t="s">
-        <v>938</v>
+        <v>89</v>
       </c>
       <c r="F38" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="G38" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -12902,13 +12884,13 @@
         <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>932</v>
+        <v>177</v>
       </c>
       <c r="F39" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="G39" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -12925,13 +12907,13 @@
         <v>9</v>
       </c>
       <c r="E40" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="F40" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s">
-        <v>179</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12948,18 +12930,18 @@
         <v>9</v>
       </c>
       <c r="E41" t="s">
-        <v>177</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>975</v>
+        <v>144</v>
       </c>
       <c r="G41" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>43143</v>
+        <v>43196</v>
       </c>
       <c r="B42" t="s">
         <v>39</v>
@@ -12971,13 +12953,13 @@
         <v>9</v>
       </c>
       <c r="E42" t="s">
-        <v>129</v>
+        <v>961</v>
       </c>
       <c r="F42" t="s">
-        <v>42</v>
+        <v>962</v>
       </c>
       <c r="G42" t="s">
-        <v>43</v>
+        <v>963</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -12985,50 +12967,50 @@
         <v>43143</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D43" t="s">
         <v>9</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>944</v>
       </c>
       <c r="F43" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="G43" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43196</v>
+        <v>43143</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D44" t="s">
         <v>9</v>
       </c>
       <c r="E44" t="s">
-        <v>970</v>
+        <v>910</v>
       </c>
       <c r="F44" t="s">
-        <v>971</v>
+        <v>18</v>
       </c>
       <c r="G44" t="s">
-        <v>972</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>43143</v>
+        <v>43224</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
@@ -13040,13 +13022,13 @@
         <v>9</v>
       </c>
       <c r="E45" t="s">
-        <v>953</v>
+        <v>1007</v>
       </c>
       <c r="F45" t="s">
-        <v>171</v>
+        <v>1008</v>
       </c>
       <c r="G45" t="s">
-        <v>172</v>
+        <v>906</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -13054,19 +13036,19 @@
         <v>43143</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D46" t="s">
         <v>9</v>
       </c>
       <c r="E46" t="s">
-        <v>919</v>
+        <v>931</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="G46" t="s">
         <v>19</v>
@@ -13074,25 +13056,25 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>43224</v>
+        <v>43143</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="D47" t="s">
         <v>9</v>
       </c>
       <c r="E47" t="s">
-        <v>1010</v>
+        <v>907</v>
       </c>
       <c r="F47" t="s">
-        <v>1011</v>
+        <v>165</v>
       </c>
       <c r="G47" t="s">
-        <v>915</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -13109,18 +13091,18 @@
         <v>9</v>
       </c>
       <c r="E48" t="s">
-        <v>940</v>
+        <v>69</v>
       </c>
       <c r="F48" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="G48" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>43143</v>
+        <v>43224</v>
       </c>
       <c r="B49" t="s">
         <v>67</v>
@@ -13132,18 +13114,18 @@
         <v>9</v>
       </c>
       <c r="E49" t="s">
-        <v>916</v>
+        <v>1012</v>
       </c>
       <c r="F49" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s">
-        <v>166</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>43143</v>
+        <v>43224</v>
       </c>
       <c r="B50" t="s">
         <v>67</v>
@@ -13155,64 +13137,64 @@
         <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>69</v>
+        <v>1014</v>
       </c>
       <c r="F50" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="G50" t="s">
-        <v>110</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>43224</v>
+        <v>43143</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
       </c>
       <c r="E51" t="s">
-        <v>1013</v>
+        <v>915</v>
       </c>
       <c r="F51" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="G51" t="s">
-        <v>1014</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>43224</v>
+        <v>43143</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D52" t="s">
         <v>9</v>
       </c>
       <c r="E52" t="s">
-        <v>1015</v>
+        <v>938</v>
       </c>
       <c r="F52" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="G52" t="s">
-        <v>1016</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>43143</v>
+        <v>43224</v>
       </c>
       <c r="B53" t="s">
         <v>48</v>
@@ -13224,18 +13206,18 @@
         <v>9</v>
       </c>
       <c r="E53" t="s">
-        <v>924</v>
+        <v>1016</v>
       </c>
       <c r="F53" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
       <c r="G53" t="s">
-        <v>100</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>43143</v>
+        <v>43224</v>
       </c>
       <c r="B54" t="s">
         <v>48</v>
@@ -13247,59 +13229,59 @@
         <v>9</v>
       </c>
       <c r="E54" t="s">
-        <v>947</v>
+        <v>1018</v>
       </c>
       <c r="F54" t="s">
-        <v>182</v>
+        <v>50</v>
       </c>
       <c r="G54" t="s">
-        <v>183</v>
+        <v>979</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>43224</v>
+        <v>43143</v>
       </c>
       <c r="B55" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D55" t="s">
         <v>9</v>
       </c>
       <c r="E55" t="s">
-        <v>1017</v>
+        <v>945</v>
       </c>
       <c r="F55" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="G55" t="s">
-        <v>1018</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>43224</v>
+        <v>43143</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D56" t="s">
         <v>9</v>
       </c>
       <c r="E56" t="s">
-        <v>1019</v>
+        <v>928</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="G56" t="s">
-        <v>982</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -13316,13 +13298,13 @@
         <v>9</v>
       </c>
       <c r="E57" t="s">
-        <v>954</v>
+        <v>935</v>
       </c>
       <c r="F57" t="s">
-        <v>65</v>
+        <v>970</v>
       </c>
       <c r="G57" t="s">
-        <v>66</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -13339,13 +13321,13 @@
         <v>9</v>
       </c>
       <c r="E58" t="s">
-        <v>937</v>
+        <v>921</v>
       </c>
       <c r="F58" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="G58" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -13362,18 +13344,18 @@
         <v>9</v>
       </c>
       <c r="E59" t="s">
-        <v>944</v>
+        <v>64</v>
       </c>
       <c r="F59" t="s">
-        <v>979</v>
+        <v>27</v>
       </c>
       <c r="G59" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>43143</v>
+        <v>43224</v>
       </c>
       <c r="B60" t="s">
         <v>25</v>
@@ -13385,13 +13367,13 @@
         <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>930</v>
+        <v>1011</v>
       </c>
       <c r="F60" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s">
-        <v>122</v>
+        <v>978</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -13399,96 +13381,96 @@
         <v>43143</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="C61" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D61" t="s">
         <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>64</v>
+        <v>930</v>
       </c>
       <c r="F61" t="s">
-        <v>27</v>
+        <v>159</v>
       </c>
       <c r="G61" t="s">
-        <v>28</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>43224</v>
+        <v>43143</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D62" t="s">
         <v>9</v>
       </c>
       <c r="E62" t="s">
-        <v>1012</v>
+        <v>912</v>
       </c>
       <c r="F62" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G62" t="s">
-        <v>981</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>43143</v>
+        <v>43196</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="C63" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="D63" t="s">
         <v>9</v>
       </c>
       <c r="E63" t="s">
-        <v>939</v>
+        <v>954</v>
       </c>
       <c r="F63" t="s">
-        <v>159</v>
+        <v>955</v>
       </c>
       <c r="G63" t="s">
-        <v>160</v>
+        <v>956</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>43143</v>
+        <v>43196</v>
       </c>
       <c r="B64" t="s">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="C64" t="s">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="D64" t="s">
         <v>9</v>
       </c>
       <c r="E64" t="s">
-        <v>921</v>
+        <v>958</v>
       </c>
       <c r="F64" t="s">
-        <v>93</v>
+        <v>959</v>
       </c>
       <c r="G64" t="s">
-        <v>94</v>
+        <v>960</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>43143</v>
+        <v>43196</v>
       </c>
       <c r="B65" t="s">
         <v>191</v>
@@ -13500,18 +13482,18 @@
         <v>9</v>
       </c>
       <c r="E65" t="s">
-        <v>999</v>
+        <v>950</v>
       </c>
       <c r="F65" t="s">
-        <v>19</v>
+        <v>951</v>
       </c>
       <c r="G65" t="s">
-        <v>19</v>
+        <v>998</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>43196</v>
+        <v>43224</v>
       </c>
       <c r="B66" t="s">
         <v>191</v>
@@ -13523,82 +13505,82 @@
         <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>963</v>
+        <v>999</v>
       </c>
       <c r="F66" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="G66" t="s">
-        <v>965</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>43196</v>
+        <v>43143</v>
       </c>
       <c r="B67" t="s">
-        <v>191</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>192</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
         <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>967</v>
+        <v>927</v>
       </c>
       <c r="F67" t="s">
-        <v>968</v>
+        <v>154</v>
       </c>
       <c r="G67" t="s">
-        <v>969</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>43196</v>
+        <v>43143</v>
       </c>
       <c r="B68" t="s">
-        <v>191</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>192</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
         <v>9</v>
       </c>
       <c r="E68" t="s">
-        <v>959</v>
+        <v>908</v>
       </c>
       <c r="F68" t="s">
-        <v>960</v>
+        <v>83</v>
       </c>
       <c r="G68" t="s">
-        <v>1023</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>43224</v>
+        <v>43143</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>192</v>
+        <v>8</v>
       </c>
       <c r="D69" t="s">
         <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>1003</v>
+        <v>933</v>
       </c>
       <c r="F69" t="s">
-        <v>966</v>
+        <v>167</v>
       </c>
       <c r="G69" t="s">
-        <v>1004</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -13615,13 +13597,13 @@
         <v>9</v>
       </c>
       <c r="E70" t="s">
-        <v>936</v>
+        <v>918</v>
       </c>
       <c r="F70" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="G70" t="s">
-        <v>155</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -13638,13 +13620,13 @@
         <v>9</v>
       </c>
       <c r="E71" t="s">
-        <v>917</v>
+        <v>941</v>
       </c>
       <c r="F71" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="G71" t="s">
-        <v>84</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -13652,22 +13634,22 @@
         <v>43143</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
       <c r="D72" t="s">
         <v>9</v>
       </c>
       <c r="E72" t="s">
-        <v>942</v>
+        <v>920</v>
       </c>
       <c r="F72" t="s">
-        <v>167</v>
+        <v>117</v>
       </c>
       <c r="G72" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -13675,22 +13657,22 @@
         <v>43143</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="D73" t="s">
         <v>9</v>
       </c>
       <c r="E73" t="s">
-        <v>927</v>
+        <v>914</v>
       </c>
       <c r="F73" t="s">
-        <v>111</v>
+        <v>968</v>
       </c>
       <c r="G73" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -13698,22 +13680,22 @@
         <v>43143</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>96</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="D74" t="s">
         <v>9</v>
       </c>
       <c r="E74" t="s">
-        <v>950</v>
+        <v>937</v>
       </c>
       <c r="F74" t="s">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G74" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -13721,22 +13703,22 @@
         <v>43143</v>
       </c>
       <c r="B75" t="s">
-        <v>115</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
       <c r="D75" t="s">
         <v>9</v>
       </c>
       <c r="E75" t="s">
-        <v>929</v>
+        <v>909</v>
       </c>
       <c r="F75" t="s">
-        <v>117</v>
+        <v>967</v>
       </c>
       <c r="G75" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -13744,22 +13726,22 @@
         <v>43143</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="D76" t="s">
         <v>9</v>
       </c>
       <c r="E76" t="s">
-        <v>923</v>
+        <v>934</v>
       </c>
       <c r="F76" t="s">
-        <v>977</v>
+        <v>169</v>
       </c>
       <c r="G76" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -13767,22 +13749,22 @@
         <v>43143</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
       </c>
       <c r="E77" t="s">
-        <v>946</v>
+        <v>919</v>
       </c>
       <c r="F77" t="s">
-        <v>180</v>
+        <v>113</v>
       </c>
       <c r="G77" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -13799,13 +13781,13 @@
         <v>9</v>
       </c>
       <c r="E78" t="s">
-        <v>918</v>
+        <v>942</v>
       </c>
       <c r="F78" t="s">
-        <v>976</v>
+        <v>14</v>
       </c>
       <c r="G78" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -13813,22 +13795,22 @@
         <v>43143</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="D79" t="s">
         <v>9</v>
       </c>
       <c r="E79" t="s">
-        <v>943</v>
+        <v>916</v>
       </c>
       <c r="F79" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="G79" t="s">
-        <v>170</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -13836,90 +13818,21 @@
         <v>43143</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="D80" t="s">
         <v>9</v>
       </c>
       <c r="E80" t="s">
-        <v>928</v>
+        <v>939</v>
       </c>
       <c r="F80" t="s">
-        <v>113</v>
+        <v>186</v>
       </c>
       <c r="G80" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>43143</v>
-      </c>
-      <c r="B81" t="s">
-        <v>12</v>
-      </c>
-      <c r="C81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81" t="s">
-        <v>951</v>
-      </c>
-      <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>43143</v>
-      </c>
-      <c r="B82" t="s">
-        <v>103</v>
-      </c>
-      <c r="C82" t="s">
-        <v>104</v>
-      </c>
-      <c r="D82" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" t="s">
-        <v>925</v>
-      </c>
-      <c r="F82" t="s">
-        <v>105</v>
-      </c>
-      <c r="G82" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>43143</v>
-      </c>
-      <c r="B83" t="s">
-        <v>103</v>
-      </c>
-      <c r="C83" t="s">
-        <v>104</v>
-      </c>
-      <c r="D83" t="s">
-        <v>9</v>
-      </c>
-      <c r="E83" t="s">
-        <v>948</v>
-      </c>
-      <c r="F83" t="s">
-        <v>186</v>
-      </c>
-      <c r="G83" t="s">
         <v>187</v>
       </c>
     </row>
@@ -13950,13 +13863,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C1" t="s">
         <v>695</v>
-      </c>
-      <c r="B1" t="s">
-        <v>696</v>
-      </c>
-      <c r="C1" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -13964,21 +13877,21 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C3" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -13986,10 +13899,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -13997,10 +13910,10 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C5" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -14008,10 +13921,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C6" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -14019,10 +13932,10 @@
         <v>194</v>
       </c>
       <c r="B7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -14030,10 +13943,10 @@
         <v>200</v>
       </c>
       <c r="B8" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C8" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -14041,10 +13954,10 @@
         <v>195</v>
       </c>
       <c r="B9" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C9" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -14052,10 +13965,10 @@
         <v>198</v>
       </c>
       <c r="B10" t="s">
+        <v>708</v>
+      </c>
+      <c r="C10" t="s">
         <v>710</v>
-      </c>
-      <c r="C10" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -14063,43 +13976,43 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
+        <v>698</v>
+      </c>
+      <c r="C11" t="s">
         <v>700</v>
-      </c>
-      <c r="C11" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="B12" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C12" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="B13" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C13" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="B14" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C14" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
